--- a/Subvention report_requirement_20201119.xlsx
+++ b/Subvention report_requirement_20201119.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="826" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" tabRatio="826" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Requirement_on System" sheetId="9" r:id="rId1"/>
@@ -18,14 +18,15 @@
     <sheet name="Formular_Sub_amortization" sheetId="8" r:id="rId4"/>
     <sheet name="SAMPLE" sheetId="1" r:id="rId5"/>
     <sheet name="SUBVENTION ALLOCATION" sheetId="2" r:id="rId6"/>
-    <sheet name="SUBVENTION BALANCE" sheetId="3" r:id="rId7"/>
-    <sheet name="SUBVENTION REPORT" sheetId="7" r:id="rId8"/>
-    <sheet name="DEALER REPORT" sheetId="6" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId7"/>
+    <sheet name="SUBVENTION BALANCE" sheetId="3" r:id="rId8"/>
+    <sheet name="SUBVENTION REPORT" sheetId="7" r:id="rId9"/>
+    <sheet name="DEALER REPORT" sheetId="6" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
     <definedName name="_91TTL" localSheetId="3">#REF!</definedName>
@@ -35,7 +36,7 @@
     <definedName name="_AMO_UniqueIdentifier" hidden="1">"'26a228e1-18f2-4ffb-984d-1e1ae658bfcf'"</definedName>
     <definedName name="_AMO_XmlVersion" hidden="1">"'1'"</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'SUBVENTION ALLOCATION'!$A$7:$N$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'SUBVENTION BALANCE'!$A$7:$Y$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'SUBVENTION BALANCE'!$A$7:$Y$7</definedName>
     <definedName name="_op1" localSheetId="3">#REF!</definedName>
     <definedName name="_op1">#REF!</definedName>
     <definedName name="_op2" localSheetId="3">#REF!</definedName>
@@ -297,6 +298,184 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Bui Thi Bich Tram</author>
+  </authors>
+  <commentList>
+    <comment ref="J4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bui Thi Bich Tram:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nợ quá hạn so với due date</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bui Thi Bich Tram:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nợ trong hạn so với due date</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bui Thi Bich Tram:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Giả sử các khoản subvention cùng 1 due date được gom lại thành 1 batch</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bui Thi Bich Tram:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Kỳ phát sinh subvention</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bui Thi Bich Tram:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Số tiền subvention phải thu theo batch</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bui Thi Bich Tram:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Số dư tiền subvention phải thu tính đến thời điểm báo cáo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bui Thi Bich Tram:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Kỳ hạn thanh toán (dựa trên điều khoản hợp đồng)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
     <author>Dinh Thi Phi Oanh</author>
   </authors>
   <commentList>
@@ -378,7 +557,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Dinh Thi Phi Oanh</author>
@@ -463,7 +642,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="295">
   <si>
     <t>Subvention amortization</t>
   </si>
@@ -1546,15 +1725,61 @@
   <si>
     <t>Subvention schedule</t>
   </si>
+  <si>
+    <t>SUBVENTION RECEIVABLE AGING REPORT</t>
+  </si>
+  <si>
+    <t>NOTE: báo cáo được extract vào ngày đầu tiên của tháng tiếp theo cho toàn bộ dữ liệu cut off đến hết ngày cuối cùng của tháng trước đó</t>
+  </si>
+  <si>
+    <t>- Việc phân loại số dư nợ phải thu dựa vào tháng query báo cáo và ngày due date</t>
+  </si>
+  <si>
+    <t>OVERDUE</t>
+  </si>
+  <si>
+    <t>INDUE</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>BATCH NO</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>ORIGINAL AMOUNT</t>
+  </si>
+  <si>
+    <t>BALANCE AMOUNT</t>
+  </si>
+  <si>
+    <t>DUE DATE</t>
+  </si>
+  <si>
+    <t>OVER 3 MONTHS</t>
+  </si>
+  <si>
+    <t>UP TO 3 MONTHS</t>
+  </si>
+  <si>
+    <t>FROM 1-5 YEARS</t>
+  </si>
+  <si>
+    <t>OVER 5 YEARS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="[$-409]mmmm\-yy;@"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -2110,7 +2335,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -2537,6 +2762,13 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -9047,6 +9279,277 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:T14"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" customWidth="1"/>
+    <col min="15" max="15" width="21.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1"/>
+    <col min="19" max="19" width="23.5703125" customWidth="1"/>
+    <col min="20" max="20" width="25.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="29">
+        <v>44124</v>
+      </c>
+      <c r="C5" s="30"/>
+    </row>
+    <row r="6" spans="1:20" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="29">
+        <v>44125</v>
+      </c>
+      <c r="C6" s="30"/>
+    </row>
+    <row r="7" spans="1:20" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="S7" s="31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="S8" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="T8" s="31"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="O9" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="P9" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q9" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="R9" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="S9" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="T9" s="33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="31">
+        <v>48</v>
+      </c>
+      <c r="F10" s="35">
+        <v>44168</v>
+      </c>
+      <c r="G10" s="35">
+        <v>44175</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="L10" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="M10" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="N10" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="O10" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="P10" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q10" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="R10" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="S10" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="T10" s="39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="R11" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="S11" s="2">
+        <f>ROUND(R11/1.1/10,0)</f>
+        <v>454545</v>
+      </c>
+      <c r="T11" s="2">
+        <f>R11-S11</f>
+        <v>4545455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S12" s="40"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="42">
+        <f>SUM(R10:R13)</f>
+        <v>5000000</v>
+      </c>
+      <c r="S14" s="42">
+        <f t="shared" ref="S14:T14" si="0">SUM(S10:S13)</f>
+        <v>454545</v>
+      </c>
+      <c r="T14" s="42">
+        <f t="shared" si="0"/>
+        <v>4545455</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="28" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
@@ -21692,7 +22195,7 @@
   </sheetPr>
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" ySplit="7" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -22759,6 +23262,140 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="36.140625" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="13" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="182">
+        <v>44135</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="183" t="s">
+        <v>283</v>
+      </c>
+      <c r="K4" s="183"/>
+      <c r="L4" s="183" t="s">
+        <v>284</v>
+      </c>
+      <c r="M4" s="183"/>
+      <c r="N4" s="183"/>
+      <c r="O4" s="183"/>
+      <c r="P4" s="183"/>
+      <c r="Q4" s="183"/>
+    </row>
+    <row r="5" spans="1:17" s="184" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="184" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="184" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="184" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="184" t="s">
+        <v>286</v>
+      </c>
+      <c r="E5" s="184" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="184" t="s">
+        <v>287</v>
+      </c>
+      <c r="G5" s="184" t="s">
+        <v>288</v>
+      </c>
+      <c r="H5" s="184" t="s">
+        <v>289</v>
+      </c>
+      <c r="I5" s="184" t="s">
+        <v>290</v>
+      </c>
+      <c r="J5" s="184" t="s">
+        <v>291</v>
+      </c>
+      <c r="K5" s="184" t="s">
+        <v>292</v>
+      </c>
+      <c r="L5" s="184" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="184" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="184" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="184" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="184" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q5" s="184" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E6" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:Q4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
@@ -24508,7 +25145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -24741,275 +25378,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:T14"/>
-  <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" customWidth="1"/>
-    <col min="15" max="15" width="21.28515625" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" customWidth="1"/>
-    <col min="19" max="19" width="23.5703125" customWidth="1"/>
-    <col min="20" max="20" width="25.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="29">
-        <v>44124</v>
-      </c>
-      <c r="C5" s="30"/>
-    </row>
-    <row r="6" spans="1:20" s="28" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="29">
-        <v>44125</v>
-      </c>
-      <c r="C6" s="30"/>
-    </row>
-    <row r="7" spans="1:20" s="28" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="S7" s="31" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="S8" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="T8" s="31"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="K9" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="L9" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="M9" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="N9" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="O9" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="P9" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q9" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="R9" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="S9" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="T9" s="33" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="31">
-        <v>48</v>
-      </c>
-      <c r="F10" s="35">
-        <v>44168</v>
-      </c>
-      <c r="G10" s="35">
-        <v>44175</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="L10" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="M10" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="N10" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="O10" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q10" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="R10" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="S10" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="T10" s="39" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O11" s="2"/>
-      <c r="R11" s="2">
-        <v>5000000</v>
-      </c>
-      <c r="S11" s="2">
-        <f>ROUND(R11/1.1/10,0)</f>
-        <v>454545</v>
-      </c>
-      <c r="T11" s="2">
-        <f>R11-S11</f>
-        <v>4545455</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="S12" s="40"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="42">
-        <f>SUM(R10:R13)</f>
-        <v>5000000</v>
-      </c>
-      <c r="S14" s="42">
-        <f t="shared" ref="S14:T14" si="0">SUM(S10:S13)</f>
-        <v>454545</v>
-      </c>
-      <c r="T14" s="42">
-        <f t="shared" si="0"/>
-        <v>4545455</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="28" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
 </file>